--- a/NAMS.xlsx
+++ b/NAMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16435702-3A0A-4216-BABF-9FEB412D146C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6947B2-BC4D-471A-BAF4-7CECF91E5FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25665" yWindow="1755" windowWidth="22575" windowHeight="18825" activeTab="1" xr2:uid="{23351DE5-76D4-4F5D-8202-0878F393C4F4}"/>
+    <workbookView xWindow="47170" yWindow="1760" windowWidth="23810" windowHeight="16130" xr2:uid="{23351DE5-76D4-4F5D-8202-0878F393C4F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Price</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>fka AMG899, Amgen acquired Dezima pharma</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>fully enrolled April 2024</t>
   </si>
 </sst>
 </file>
@@ -278,10 +284,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -634,137 +639,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7610CFAC-8128-47D2-A84F-29FA98E97CD9}">
   <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.02</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+        <v>18.77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="2"/>
       <c r="H3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="12">
-        <v>89.976538000000005</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I3" s="11">
+        <v>112.27067700000001</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="2"/>
       <c r="H4" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <f>+I2*I3</f>
-        <v>1531.4006767600001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+        <v>2107.3206072900002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
       <c r="H5" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="12">
-        <v>481.14699999999999</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I5" s="11">
+        <v>748.42</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
       <c r="H6" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>0</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="J6" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
       <c r="H7" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <f>+I4-I5+I6</f>
-        <v>1050.2536767600002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+        <v>1358.9006072900002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>807.00800000000004</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>410.74</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
         <v>32</v>
       </c>
@@ -778,22 +772,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BF47B-48A4-4589-9C0D-5ACC5EDF0AA5}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -801,7 +793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -809,7 +801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -817,7 +809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -825,7 +817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -833,62 +825,67 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="11" t="s">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="11" t="s">
+    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C15" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="11" t="s">
+    <row r="18" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C18" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="11" t="s">
+    <row r="21" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C21" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>33</v>
       </c>
